--- a/stats/excel-flatfile-eda.xlsx
+++ b/stats/excel-flatfile-eda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="129">
   <si>
     <t>Feature name</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>depart_Writing_female</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -818,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +916,9 @@
       <c r="J2" s="4">
         <v>7375</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
@@ -2686,7 +2691,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>82</v>
       </c>
@@ -2818,7 +2823,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>85</v>
       </c>
@@ -2862,7 +2867,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>87</v>
       </c>
@@ -2906,7 +2911,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
@@ -2950,7 +2955,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>89</v>
       </c>
@@ -2994,7 +2999,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>90</v>
       </c>
@@ -3038,7 +3043,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>91</v>
       </c>
@@ -3082,7 +3087,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>92</v>
       </c>
@@ -3126,7 +3131,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>93</v>
       </c>
@@ -3170,7 +3175,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>94</v>
       </c>
@@ -3214,7 +3219,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>95</v>
       </c>
@@ -3258,7 +3263,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>96</v>
       </c>
@@ -3302,7 +3307,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>97</v>
       </c>
@@ -3346,7 +3351,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>98</v>
       </c>
@@ -3390,7 +3395,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>99</v>
       </c>
@@ -3434,7 +3439,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>100</v>
       </c>
@@ -3478,7 +3483,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>101</v>
       </c>
@@ -3522,7 +3527,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>102</v>
       </c>
@@ -3566,7 +3571,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>103</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>104</v>
       </c>
@@ -3654,7 +3659,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>105</v>
       </c>
@@ -3698,7 +3703,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>107</v>
       </c>
@@ -3742,7 +3747,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>108</v>
       </c>
@@ -3786,7 +3791,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>109</v>
       </c>
@@ -3830,7 +3835,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>110</v>
       </c>
@@ -3874,7 +3879,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>111</v>
       </c>
@@ -3918,7 +3923,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>112</v>
       </c>
@@ -3962,7 +3967,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>113</v>
       </c>
@@ -4006,7 +4011,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>114</v>
       </c>
@@ -4050,7 +4055,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>115</v>
       </c>
@@ -4094,7 +4099,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>116</v>
       </c>
@@ -4138,7 +4143,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>117</v>
       </c>
@@ -4182,7 +4187,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>118</v>
       </c>
@@ -4226,7 +4231,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>119</v>
       </c>
@@ -4270,7 +4275,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>120</v>
       </c>
@@ -4314,7 +4319,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>121</v>
       </c>
@@ -4358,7 +4363,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>122</v>
       </c>
@@ -4402,7 +4407,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>123</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>124</v>
       </c>
@@ -4490,7 +4495,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>125</v>
       </c>
@@ -4534,7 +4539,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>126</v>
       </c>
@@ -4578,7 +4583,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>127</v>
       </c>

--- a/stats/excel-flatfile-eda.xlsx
+++ b/stats/excel-flatfile-eda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="124">
   <si>
     <t>Feature name</t>
   </si>
@@ -392,32 +392,17 @@
     <t>Leave</t>
   </si>
   <si>
-    <t>Categorize</t>
-  </si>
-  <si>
-    <t>remove rows</t>
-  </si>
-  <si>
     <t>0 as Null</t>
   </si>
   <si>
-    <t>leave</t>
-  </si>
-  <si>
-    <t>remove row</t>
-  </si>
-  <si>
-    <t>delete column</t>
-  </si>
-  <si>
-    <t>categorize As 2</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,12 +433,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -551,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -574,16 +553,13 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -868,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +943,9 @@
       <c r="K2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
@@ -1015,8 +993,8 @@
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>122</v>
+      <c r="L3" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="2"/>
@@ -1059,7 +1037,9 @@
       <c r="K4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
@@ -1105,7 +1085,7 @@
       <c r="K5" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M5" s="5"/>
@@ -1155,9 +1135,9 @@
         <v>338</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="L6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M6" s="5"/>
@@ -1205,7 +1185,9 @@
       <c r="K7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
@@ -1245,14 +1227,14 @@
       <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>1520000000</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>125</v>
+      <c r="L8" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="2"/>
@@ -1299,7 +1281,9 @@
       <c r="K9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
@@ -1345,7 +1329,9 @@
       <c r="K10" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="2"/>
       <c r="O10" s="1"/>
@@ -1391,7 +1377,9 @@
       <c r="K11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
@@ -1437,7 +1425,9 @@
       <c r="K12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="2"/>
       <c r="O12" s="1"/>
@@ -1483,7 +1473,7 @@
       <c r="K13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M13" s="5"/>
@@ -1517,7 +1507,7 @@
       <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>99</v>
       </c>
       <c r="G14" s="5"/>
@@ -1532,7 +1522,7 @@
         <v>121</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="2"/>
@@ -1580,7 +1570,7 @@
         <v>121</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="2"/>
@@ -1627,7 +1617,9 @@
       <c r="K16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="2"/>
       <c r="O16" s="1"/>
@@ -1674,7 +1666,7 @@
         <v>121</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="2"/>
@@ -1721,7 +1713,7 @@
       <c r="K18" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M18" s="5"/>
@@ -1769,7 +1761,9 @@
       <c r="K19" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
@@ -1785,7 +1779,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1815,8 +1809,8 @@
       <c r="K20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="8" t="s">
-        <v>127</v>
+      <c r="L20" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="2"/>
@@ -1863,7 +1857,7 @@
       <c r="K21" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M21" s="5"/>
@@ -1911,7 +1905,9 @@
       <c r="K22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="2"/>
       <c r="O22" s="1"/>
@@ -1957,7 +1953,9 @@
       <c r="K23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="2"/>
       <c r="O23" s="1"/>
@@ -2003,7 +2001,9 @@
       <c r="K24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="2"/>
       <c r="O24" s="1"/>
@@ -2049,7 +2049,9 @@
       <c r="K25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="2"/>
       <c r="O25" s="1"/>
@@ -2095,7 +2097,9 @@
       <c r="K26" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="2"/>
       <c r="O26" s="1"/>
@@ -2141,7 +2145,7 @@
       <c r="K27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M27" s="5"/>
@@ -2189,7 +2193,7 @@
       <c r="K28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M28" s="5"/>
@@ -2237,7 +2241,7 @@
       <c r="K29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M29" s="5"/>
@@ -2255,7 +2259,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -2285,8 +2289,8 @@
       <c r="K30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>127</v>
+      <c r="L30" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="2"/>
@@ -2333,7 +2337,7 @@
       <c r="K31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M31" s="5"/>
@@ -2351,7 +2355,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -2381,8 +2385,8 @@
       <c r="K32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>127</v>
+      <c r="L32" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="2"/>
@@ -2429,7 +2433,7 @@
       <c r="K33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M33" s="5"/>
@@ -2447,7 +2451,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -2478,7 +2482,7 @@
         <v>121</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="2"/>
@@ -2495,7 +2499,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>68</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>121</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="2"/>
@@ -2543,7 +2547,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>69</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>121</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="2"/>
@@ -2591,7 +2595,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>70</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>121</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="2"/>
@@ -2639,7 +2643,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>121</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="2"/>
@@ -2687,7 +2691,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>72</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>121</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="2"/>
@@ -2759,14 +2763,14 @@
       <c r="I40" s="6">
         <v>1</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <v>1520000000</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>122</v>
+      <c r="L40" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="2"/>
@@ -2783,7 +2787,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>74</v>
       </c>
@@ -2807,14 +2811,14 @@
       <c r="I41" s="6">
         <v>1</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <v>1520000000</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>127</v>
+      <c r="L41" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="2"/>
@@ -2831,7 +2835,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>75</v>
       </c>
@@ -2855,14 +2859,14 @@
       <c r="I42" s="6">
         <v>1</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>1520000000</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>127</v>
+      <c r="L42" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="2"/>
@@ -2907,7 +2911,7 @@
       <c r="K43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M43" s="5"/>
@@ -2925,7 +2929,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -2953,8 +2957,8 @@
       <c r="K44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="8" t="s">
-        <v>127</v>
+      <c r="L44" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="2"/>
@@ -3001,7 +3005,9 @@
       <c r="K45" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M45" s="5"/>
       <c r="N45" s="2"/>
       <c r="O45" s="1"/>
@@ -3047,7 +3053,9 @@
       <c r="K46" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="2"/>
       <c r="O46" s="1"/>
@@ -3093,7 +3101,9 @@
       <c r="K47" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M47" s="5"/>
       <c r="N47" s="2"/>
       <c r="O47" s="1"/>
@@ -3139,7 +3149,9 @@
       <c r="K48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M48" s="5"/>
       <c r="N48" s="2"/>
       <c r="O48" s="1"/>
@@ -3185,7 +3197,9 @@
       <c r="K49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M49" s="5"/>
       <c r="N49" s="2"/>
       <c r="O49" s="1"/>
@@ -3231,7 +3245,9 @@
       <c r="K50" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M50" s="5"/>
       <c r="N50" s="2"/>
       <c r="O50" s="1"/>
@@ -3277,7 +3293,9 @@
       <c r="K51" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M51" s="5"/>
       <c r="N51" s="2"/>
       <c r="O51" s="1"/>
@@ -3323,7 +3341,9 @@
       <c r="K52" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M52" s="5"/>
       <c r="N52" s="2"/>
       <c r="O52" s="1"/>
@@ -3369,7 +3389,9 @@
       <c r="K53" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M53" s="5"/>
       <c r="N53" s="2"/>
       <c r="O53" s="1"/>
@@ -3415,7 +3437,9 @@
       <c r="K54" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M54" s="5"/>
       <c r="N54" s="2"/>
       <c r="O54" s="1"/>
@@ -3461,7 +3485,9 @@
       <c r="K55" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M55" s="5"/>
       <c r="N55" s="2"/>
       <c r="O55" s="1"/>
@@ -3507,7 +3533,9 @@
       <c r="K56" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L56" s="5"/>
+      <c r="L56" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M56" s="5"/>
       <c r="N56" s="2"/>
       <c r="O56" s="1"/>
@@ -3553,7 +3581,9 @@
       <c r="K57" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L57" s="5"/>
+      <c r="L57" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M57" s="5"/>
       <c r="N57" s="2"/>
       <c r="O57" s="1"/>
@@ -3599,7 +3629,9 @@
       <c r="K58" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L58" s="5"/>
+      <c r="L58" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M58" s="5"/>
       <c r="N58" s="2"/>
       <c r="O58" s="1"/>
@@ -3645,7 +3677,9 @@
       <c r="K59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="5"/>
+      <c r="L59" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M59" s="5"/>
       <c r="N59" s="2"/>
       <c r="O59" s="1"/>
@@ -3691,7 +3725,9 @@
       <c r="K60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L60" s="5"/>
+      <c r="L60" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M60" s="5"/>
       <c r="N60" s="2"/>
       <c r="O60" s="1"/>
@@ -3737,7 +3773,9 @@
       <c r="K61" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L61" s="5"/>
+      <c r="L61" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M61" s="5"/>
       <c r="N61" s="2"/>
       <c r="O61" s="1"/>
@@ -3783,7 +3821,9 @@
       <c r="K62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L62" s="5"/>
+      <c r="L62" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M62" s="5"/>
       <c r="N62" s="2"/>
       <c r="O62" s="1"/>
@@ -3829,7 +3869,9 @@
       <c r="K63" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L63" s="5"/>
+      <c r="L63" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M63" s="5"/>
       <c r="N63" s="2"/>
       <c r="O63" s="1"/>
@@ -3875,7 +3917,7 @@
       <c r="K64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M64" s="5"/>
@@ -3893,7 +3935,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>100</v>
       </c>
@@ -3923,8 +3965,8 @@
       <c r="K65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>127</v>
+      <c r="L65" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="2"/>
@@ -3941,7 +3983,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>101</v>
       </c>
@@ -3971,8 +4013,8 @@
       <c r="K66" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L66" s="8" t="s">
-        <v>127</v>
+      <c r="L66" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="2"/>
@@ -4019,7 +4061,7 @@
       <c r="K67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M67" s="5"/>
@@ -4037,7 +4079,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>103</v>
       </c>
@@ -4067,8 +4109,8 @@
       <c r="K68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L68" s="8" t="s">
-        <v>127</v>
+      <c r="L68" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="2"/>
@@ -4085,7 +4127,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>104</v>
       </c>
@@ -4115,8 +4157,8 @@
       <c r="K69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="8" t="s">
-        <v>127</v>
+      <c r="L69" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M69" s="5"/>
       <c r="N69" s="2"/>
@@ -4163,7 +4205,7 @@
       <c r="K70" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="L70" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M70" s="5"/>
@@ -4211,7 +4253,7 @@
       <c r="K71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M71" s="5"/>
@@ -4259,7 +4301,7 @@
       <c r="K72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M72" s="5"/>
@@ -4277,7 +4319,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>108</v>
       </c>
@@ -4307,8 +4349,8 @@
       <c r="K73" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>127</v>
+      <c r="L73" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="M73" s="5"/>
       <c r="N73" s="2"/>
@@ -4355,7 +4397,7 @@
       <c r="K74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="L74" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M74" s="5"/>
@@ -4403,7 +4445,7 @@
       <c r="K75" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M75" s="5"/>
@@ -4451,7 +4493,7 @@
       <c r="K76" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L76" s="8" t="s">
+      <c r="L76" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M76" s="5"/>
@@ -4499,7 +4541,7 @@
       <c r="K77" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L77" s="8" t="s">
+      <c r="L77" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M77" s="5"/>
@@ -4547,7 +4589,7 @@
       <c r="K78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="L78" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M78" s="5"/>
@@ -4595,7 +4637,7 @@
       <c r="K79" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="L79" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M79" s="5"/>
@@ -4643,7 +4685,7 @@
       <c r="K80" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="L80" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M80" s="5"/>
@@ -4691,7 +4733,9 @@
       <c r="K81" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L81" s="8"/>
+      <c r="L81" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="M81" s="5"/>
       <c r="N81" s="2"/>
       <c r="O81" s="1"/>
@@ -4737,7 +4781,7 @@
       <c r="K82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M82" s="5"/>
@@ -4785,7 +4829,7 @@
       <c r="K83" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="L83" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M83" s="5"/>
@@ -4833,7 +4877,7 @@
       <c r="K84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M84" s="5"/>
@@ -4881,7 +4925,7 @@
       <c r="K85" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="L85" s="5" t="s">
         <v>123</v>
       </c>
       <c r="M85" s="5"/>
